--- a/Data/Excel/Skill.xlsx
+++ b/Data/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13230"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>近战普通攻击</t>
   </si>
   <si>
-    <t>远程普通攻击</t>
+    <t>远程直线射击</t>
   </si>
   <si>
-    <t>弓箭伤害</t>
+    <t>远程曲线射击</t>
   </si>
 </sst>
 </file>
@@ -61,6 +61,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -68,9 +91,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,52 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -146,14 +168,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -161,9 +175,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,35 +200,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,31 +214,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,151 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,26 +408,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,6 +428,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,44 +484,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -715,6 +715,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -999,7 +1004,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1009,13 +1013,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="14.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1125,7 +1129,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1142,7 +1146,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Skill.xlsx
+++ b/Data/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="28695" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>id</t>
   </si>
@@ -33,13 +33,28 @@
     <t>string</t>
   </si>
   <si>
-    <t>近战普通攻击</t>
+    <t>近战通用攻击</t>
   </si>
   <si>
-    <t>远程直线射击</t>
+    <t>箭塔通用射击</t>
   </si>
   <si>
-    <t>远程曲线射击</t>
+    <t>魔法塔通用攻击</t>
+  </si>
+  <si>
+    <t>巫师塔攻击</t>
+  </si>
+  <si>
+    <t>大法师塔攻击</t>
+  </si>
+  <si>
+    <t>炮塔通用攻击</t>
+  </si>
+  <si>
+    <t>地震塔攻击</t>
+  </si>
+  <si>
+    <t>磁暴塔攻击</t>
   </si>
 </sst>
 </file>
@@ -47,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,6 +76,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -69,6 +134,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -78,21 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,26 +166,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -128,19 +188,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,54 +204,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,13 +229,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,13 +361,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,25 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,121 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,26 +423,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,17 +455,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -468,16 +463,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +482,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +509,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,6 +1019,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1013,13 +1029,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="14.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1084,29 +1100,59 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
@@ -1129,7 +1175,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1146,7 +1192,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Skill.xlsx
+++ b/Data/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="6420"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +83,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -91,33 +99,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -128,12 +159,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -143,30 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,32 +213,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +235,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -247,6 +259,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,6 +301,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,139 +355,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,17 +423,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,41 +459,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,13 +491,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Data/Excel/Skill.xlsx
+++ b/Data/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>炮塔通用攻击</t>
   </si>
   <si>
-    <t>地震塔攻击</t>
+    <t>大炮塔攻击</t>
   </si>
   <si>
     <t>磁暴塔攻击</t>
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,35 +85,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,16 +123,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,9 +152,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,29 +175,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -219,6 +197,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -229,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,9 +425,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,13 +467,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,36 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +540,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,23 +1019,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="14.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1167,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1175,7 +1174,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1184,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1192,7 +1191,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
